--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T20:45:59+00:00</t>
+    <t>2022-11-16T15:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:08:29+00:00</t>
+    <t>2022-11-16T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$154</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5410" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5377" uniqueCount="721">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:32:30+00:00</t>
+    <t>2022-11-16T21:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1564,13 +1564,6 @@
   </si>
   <si>
     <t>PlanDefinition.action.extension</t>
-  </si>
-  <si>
-    <t>Epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://github.com/alpivonka/FHIR-Base-Clinical-Examples/StructureDefinition/epoch}
-</t>
   </si>
   <si>
     <t>PlanDefinition.action.modifierExtension</t>
@@ -2552,7 +2545,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM155"/>
+  <dimension ref="A1:AM154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11902,7 +11895,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11924,12 +11917,14 @@
         <v>99</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>72</v>
@@ -11966,14 +11961,16 @@
         <v>72</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AB85" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AC85" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
         <v>106</v>
@@ -11994,7 +11991,7 @@
         <v>72</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -12005,41 +12002,43 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B86" t="s" s="2">
         <v>500</v>
       </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>72</v>
+        <v>404</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>501</v>
+        <v>99</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>72</v>
       </c>
@@ -12087,7 +12086,7 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>106</v>
+        <v>407</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>
@@ -12105,7 +12104,7 @@
         <v>72</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -12116,43 +12115,39 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>404</v>
+        <v>72</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>405</v>
+        <v>502</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>72</v>
       </c>
@@ -12200,25 +12195,25 @@
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -12229,7 +12224,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12255,10 +12250,10 @@
         <v>226</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12309,7 +12304,7 @@
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>73</v>
@@ -12336,9 +12331,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12352,7 +12347,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>72</v>
@@ -12364,7 +12359,7 @@
         <v>226</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>508</v>
@@ -12418,7 +12413,7 @@
         <v>72</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>73</v>
@@ -12433,10 +12428,10 @@
         <v>117</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -12445,7 +12440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
         <v>509</v>
       </c>
@@ -12461,7 +12456,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>72</v>
@@ -12473,10 +12468,10 @@
         <v>226</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12542,10 +12537,10 @@
         <v>117</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -12556,7 +12551,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12582,10 +12577,10 @@
         <v>226</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12636,7 +12631,7 @@
         <v>72</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>73</v>
@@ -12665,7 +12660,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12688,13 +12683,13 @@
         <v>72</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12721,13 +12716,13 @@
         <v>72</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>72</v>
+        <v>518</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>72</v>
+        <v>519</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>72</v>
@@ -12745,7 +12740,7 @@
         <v>72</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>73</v>
@@ -12760,10 +12755,10 @@
         <v>117</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>311</v>
+        <v>72</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>312</v>
+        <v>520</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -12774,7 +12769,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12797,13 +12792,13 @@
         <v>72</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12830,31 +12825,31 @@
         <v>72</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE93" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>73</v>
@@ -12872,7 +12867,7 @@
         <v>72</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12883,7 +12878,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12894,7 +12889,7 @@
         <v>73</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>72</v>
@@ -12909,12 +12904,14 @@
         <v>250</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>72</v>
@@ -12942,34 +12939,34 @@
         <v>148</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE94" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Z94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="AF94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>72</v>
@@ -12981,7 +12978,7 @@
         <v>72</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12992,7 +12989,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13015,17 +13012,15 @@
         <v>72</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>250</v>
+        <v>386</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>72</v>
@@ -13050,31 +13045,31 @@
         <v>72</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>533</v>
+        <v>72</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE95" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>73</v>
@@ -13092,7 +13087,7 @@
         <v>72</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>535</v>
+        <v>231</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
@@ -13103,7 +13098,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13126,13 +13121,13 @@
         <v>72</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13183,7 +13178,7 @@
         <v>72</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>73</v>
@@ -13212,7 +13207,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13223,7 +13218,7 @@
         <v>73</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>72</v>
@@ -13235,70 +13230,76 @@
         <v>72</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>82</v>
+        <v>541</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE97" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>539</v>
-      </c>
       <c r="AF97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>72</v>
@@ -13307,7 +13308,7 @@
         <v>117</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>231</v>
@@ -13319,9 +13320,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13332,10 +13333,10 @@
         <v>73</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>72</v>
@@ -13344,76 +13345,70 @@
         <v>72</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M98" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE98" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="N98" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P98" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="Q98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="AF98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>72</v>
@@ -13422,7 +13417,7 @@
         <v>117</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>231</v>
@@ -13436,7 +13431,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13459,15 +13454,17 @@
         <v>72</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>549</v>
+        <v>397</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>72</v>
@@ -13516,7 +13513,7 @@
         <v>72</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>73</v>
@@ -13543,9 +13540,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13556,10 +13553,10 @@
         <v>73</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>72</v>
@@ -13568,17 +13565,15 @@
         <v>72</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>397</v>
+        <v>226</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>553</v>
+        <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>72</v>
@@ -13627,25 +13622,25 @@
         <v>72</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>552</v>
+        <v>95</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13656,18 +13651,18 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>72</v>
@@ -13679,15 +13674,17 @@
         <v>72</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M101" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>72</v>
@@ -13736,19 +13733,19 @@
         <v>72</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>72</v>
@@ -13765,11 +13762,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13782,24 +13779,26 @@
         <v>72</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>101</v>
+        <v>406</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>72</v>
       </c>
@@ -13847,7 +13846,7 @@
         <v>72</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>106</v>
+        <v>407</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>73</v>
@@ -13865,7 +13864,7 @@
         <v>72</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>72</v>
@@ -13876,43 +13875,41 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>404</v>
+        <v>72</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>405</v>
+        <v>558</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>406</v>
+        <v>559</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>72</v>
       </c>
@@ -13936,13 +13933,13 @@
         <v>72</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>72</v>
+        <v>561</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>72</v>
+        <v>562</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>72</v>
@@ -13960,25 +13957,25 @@
         <v>72</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>407</v>
+        <v>557</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
@@ -13989,7 +13986,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13997,7 +13994,7 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>80</v>
@@ -14012,16 +14009,16 @@
         <v>72</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>157</v>
+        <v>564</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14047,34 +14044,34 @@
         <v>72</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="X104" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE104" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="Y104" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>559</v>
-      </c>
       <c r="AF104" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14100,7 +14097,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14111,7 +14108,7 @@
         <v>73</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>72</v>
@@ -14123,17 +14120,15 @@
         <v>72</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>566</v>
+        <v>397</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>72</v>
@@ -14182,19 +14177,19 @@
         <v>72</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>117</v>
+        <v>571</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>72</v>
@@ -14211,7 +14206,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14222,7 +14217,7 @@
         <v>73</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>72</v>
@@ -14234,13 +14229,13 @@
         <v>72</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>397</v>
+        <v>226</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>571</v>
+        <v>93</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>572</v>
+        <v>94</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14291,25 +14286,25 @@
         <v>72</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>570</v>
+        <v>95</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>573</v>
+        <v>72</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>
@@ -14320,18 +14315,18 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>72</v>
@@ -14343,15 +14338,17 @@
         <v>72</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>72</v>
@@ -14400,19 +14397,19 @@
         <v>72</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>72</v>
@@ -14429,11 +14426,11 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14446,24 +14443,26 @@
         <v>72</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>101</v>
+        <v>406</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N108" s="2"/>
+      <c r="N108" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>72</v>
       </c>
@@ -14511,7 +14510,7 @@
         <v>72</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>106</v>
+        <v>407</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>73</v>
@@ -14529,7 +14528,7 @@
         <v>72</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>72</v>
@@ -14540,43 +14539,39 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>404</v>
+        <v>72</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>72</v>
       </c>
@@ -14624,25 +14619,25 @@
         <v>72</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>407</v>
+        <v>575</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>72</v>
@@ -14676,13 +14671,13 @@
         <v>72</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>226</v>
+        <v>578</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>465</v>
+        <v>579</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14762,7 +14757,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14785,15 +14780,17 @@
         <v>72</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>580</v>
+        <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="M111" s="2"/>
+      <c r="M111" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>72</v>
@@ -14842,7 +14839,7 @@
         <v>72</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>73</v>
@@ -14871,7 +14868,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14882,7 +14879,7 @@
         <v>73</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>72</v>
@@ -14894,17 +14891,15 @@
         <v>72</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>72</v>
@@ -14953,19 +14948,19 @@
         <v>72</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>117</v>
+        <v>587</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>72</v>
@@ -14982,7 +14977,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14993,7 +14988,7 @@
         <v>73</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>72</v>
@@ -15005,13 +15000,13 @@
         <v>72</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>397</v>
+        <v>226</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>587</v>
+        <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>588</v>
+        <v>94</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15062,25 +15057,25 @@
         <v>72</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>586</v>
+        <v>95</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>589</v>
+        <v>72</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>72</v>
@@ -15091,18 +15086,18 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>72</v>
@@ -15114,15 +15109,17 @@
         <v>72</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>72</v>
@@ -15171,19 +15168,19 @@
         <v>72</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>72</v>
@@ -15200,11 +15197,11 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15217,24 +15214,26 @@
         <v>72</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J115" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>101</v>
+        <v>406</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N115" s="2"/>
+      <c r="N115" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>72</v>
       </c>
@@ -15282,7 +15281,7 @@
         <v>72</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>106</v>
+        <v>407</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>73</v>
@@ -15300,7 +15299,7 @@
         <v>72</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>72</v>
@@ -15311,43 +15310,39 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>404</v>
+        <v>72</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>72</v>
       </c>
@@ -15395,25 +15390,25 @@
         <v>72</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>407</v>
+        <v>591</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>72</v>
@@ -15424,7 +15419,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15447,13 +15442,13 @@
         <v>72</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>226</v>
+        <v>578</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>465</v>
+        <v>579</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -15504,7 +15499,7 @@
         <v>72</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>73</v>
@@ -15556,15 +15551,17 @@
         <v>72</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>580</v>
+        <v>226</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L118" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="M118" s="2"/>
+      <c r="M118" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>72</v>
@@ -15640,9 +15637,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15653,10 +15650,10 @@
         <v>73</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>72</v>
@@ -15665,16 +15662,16 @@
         <v>72</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>226</v>
+        <v>397</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -15724,13 +15721,13 @@
         <v>72</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>72</v>
@@ -15751,9 +15748,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15764,10 +15761,10 @@
         <v>73</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>72</v>
@@ -15776,17 +15773,15 @@
         <v>72</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>397</v>
+        <v>226</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>600</v>
+        <v>93</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>72</v>
@@ -15835,25 +15830,25 @@
         <v>72</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>599</v>
+        <v>95</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>72</v>
@@ -15864,7 +15859,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15875,7 +15870,7 @@
         <v>73</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>72</v>
@@ -15887,13 +15882,13 @@
         <v>72</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15932,37 +15927,35 @@
         <v>72</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AB121" s="2"/>
       <c r="AC121" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>72</v>
@@ -15973,9 +15966,11 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B122" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="C122" t="s" s="2">
         <v>72</v>
       </c>
@@ -15984,7 +15979,7 @@
         <v>73</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>72</v>
@@ -15996,13 +15991,13 @@
         <v>72</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>99</v>
+        <v>604</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>182</v>
+        <v>605</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>183</v>
+        <v>606</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16041,14 +16036,16 @@
         <v>72</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AB122" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AC122" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AE122" t="s" s="2">
         <v>106</v>
@@ -16080,41 +16077,43 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>72</v>
+        <v>404</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>606</v>
+        <v>99</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>607</v>
+        <v>405</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>72</v>
       </c>
@@ -16162,7 +16161,7 @@
         <v>72</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>106</v>
+        <v>407</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>73</v>
@@ -16180,7 +16179,7 @@
         <v>72</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>72</v>
@@ -16189,45 +16188,41 @@
         <v>72</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>404</v>
+        <v>72</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>405</v>
+        <v>609</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>72</v>
       </c>
@@ -16275,25 +16270,25 @@
         <v>72</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>407</v>
+        <v>608</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>72</v>
@@ -16304,7 +16299,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16327,13 +16322,13 @@
         <v>72</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16360,13 +16355,13 @@
         <v>72</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>72</v>
+        <v>614</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>72</v>
+        <v>615</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>72</v>
@@ -16384,7 +16379,7 @@
         <v>72</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>80</v>
@@ -16413,7 +16408,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16421,7 +16416,7 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>80</v>
@@ -16436,13 +16431,13 @@
         <v>72</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>157</v>
+        <v>617</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16469,34 +16464,34 @@
         <v>72</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="X126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE126" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="Y126" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>613</v>
-      </c>
       <c r="AF126" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -16522,7 +16517,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16545,16 +16540,20 @@
         <v>72</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>72</v>
       </c>
@@ -16602,7 +16601,7 @@
         <v>72</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>73</v>
@@ -16620,7 +16619,7 @@
         <v>72</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>231</v>
+        <v>626</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>72</v>
@@ -16629,13 +16628,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>72</v>
+        <v>628</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16645,7 +16644,7 @@
         <v>80</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>72</v>
@@ -16654,19 +16653,19 @@
         <v>72</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>72</v>
@@ -16715,7 +16714,7 @@
         <v>72</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>73</v>
@@ -16733,7 +16732,7 @@
         <v>72</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>72</v>
@@ -16744,18 +16743,18 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>630</v>
+        <v>72</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>72</v>
@@ -16767,20 +16766,16 @@
         <v>72</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>631</v>
+        <v>397</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>72</v>
       </c>
@@ -16828,13 +16823,13 @@
         <v>72</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>72</v>
@@ -16846,7 +16841,7 @@
         <v>72</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>636</v>
+        <v>460</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>72</v>
@@ -16857,7 +16852,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16868,7 +16863,7 @@
         <v>73</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>72</v>
@@ -16880,13 +16875,13 @@
         <v>72</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>397</v>
+        <v>226</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>638</v>
+        <v>93</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>639</v>
+        <v>94</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16937,25 +16932,25 @@
         <v>72</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>637</v>
+        <v>95</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>460</v>
+        <v>96</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>72</v>
@@ -16966,18 +16961,18 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>72</v>
@@ -16989,15 +16984,17 @@
         <v>72</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M131" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>72</v>
@@ -17046,19 +17043,19 @@
         <v>72</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>72</v>
@@ -17075,11 +17072,11 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17092,24 +17089,26 @@
         <v>72</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>101</v>
+        <v>406</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N132" s="2"/>
+      <c r="N132" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>72</v>
       </c>
@@ -17157,7 +17156,7 @@
         <v>72</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>106</v>
+        <v>407</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>73</v>
@@ -17175,7 +17174,7 @@
         <v>72</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>72</v>
@@ -17186,43 +17185,39 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>404</v>
+        <v>72</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>405</v>
+        <v>642</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>72</v>
       </c>
@@ -17270,25 +17265,25 @@
         <v>72</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>407</v>
+        <v>641</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>72</v>
@@ -17299,7 +17294,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17322,13 +17317,13 @@
         <v>72</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>644</v>
+        <v>477</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>645</v>
+        <v>478</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -17355,13 +17350,13 @@
         <v>72</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>72</v>
+        <v>479</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>72</v>
+        <v>480</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>72</v>
@@ -17379,7 +17374,7 @@
         <v>72</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>73</v>
@@ -17397,7 +17392,7 @@
         <v>72</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>231</v>
+        <v>481</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>72</v>
@@ -17408,7 +17403,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17431,10 +17426,10 @@
         <v>72</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>157</v>
+        <v>483</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="L135" t="s" s="2">
         <v>478</v>
@@ -17464,13 +17459,13 @@
         <v>72</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>479</v>
+        <v>72</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>480</v>
+        <v>72</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>72</v>
@@ -17488,7 +17483,7 @@
         <v>72</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>73</v>
@@ -17517,7 +17512,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17540,7 +17535,7 @@
         <v>72</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>484</v>
@@ -17548,7 +17543,9 @@
       <c r="L136" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M136" s="2"/>
+      <c r="M136" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>72</v>
@@ -17597,7 +17594,7 @@
         <v>72</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>73</v>
@@ -17626,7 +17623,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17649,17 +17646,15 @@
         <v>72</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>486</v>
+        <v>250</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>72</v>
@@ -17684,13 +17679,13 @@
         <v>72</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>72</v>
+        <v>648</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>72</v>
+        <v>491</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>72</v>
@@ -17708,7 +17703,7 @@
         <v>72</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>73</v>
@@ -17726,7 +17721,7 @@
         <v>72</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>481</v>
+        <v>649</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>72</v>
@@ -17737,7 +17732,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17763,10 +17758,10 @@
         <v>250</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>489</v>
+        <v>651</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>490</v>
+        <v>652</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -17795,29 +17790,27 @@
       <c r="W138" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X138" t="s" s="2">
+      <c r="X138" s="2"/>
+      <c r="Y138" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE138" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>73</v>
@@ -17835,7 +17828,7 @@
         <v>72</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>72</v>
@@ -17846,7 +17839,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17872,10 +17865,10 @@
         <v>250</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17902,11 +17895,13 @@
         <v>72</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X139" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>657</v>
+      </c>
       <c r="Y139" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>72</v>
@@ -17924,7 +17919,7 @@
         <v>72</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>73</v>
@@ -17942,7 +17937,7 @@
         <v>72</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>72</v>
@@ -17953,7 +17948,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17976,13 +17971,13 @@
         <v>72</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18009,31 +18004,31 @@
         <v>72</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="Y140" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE140" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>73</v>
@@ -18051,7 +18046,7 @@
         <v>72</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>661</v>
+        <v>180</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>72</v>
@@ -18062,7 +18057,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18088,10 +18083,10 @@
         <v>157</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -18121,28 +18116,28 @@
         <v>259</v>
       </c>
       <c r="X141" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE141" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>73</v>
@@ -18169,9 +18164,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18185,7 +18180,7 @@
         <v>80</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>72</v>
@@ -18197,10 +18192,10 @@
         <v>157</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -18230,28 +18225,28 @@
         <v>259</v>
       </c>
       <c r="X142" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE142" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>73</v>
@@ -18278,9 +18273,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18294,7 +18289,7 @@
         <v>80</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>72</v>
@@ -18306,10 +18301,10 @@
         <v>157</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -18339,28 +18334,28 @@
         <v>259</v>
       </c>
       <c r="X143" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE143" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>73</v>
@@ -18387,9 +18382,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18403,7 +18398,7 @@
         <v>80</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>72</v>
@@ -18415,10 +18410,10 @@
         <v>157</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18448,28 +18443,28 @@
         <v>259</v>
       </c>
       <c r="X144" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE144" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>73</v>
@@ -18496,9 +18491,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18512,7 +18507,7 @@
         <v>80</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>72</v>
@@ -18521,15 +18516,17 @@
         <v>72</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>157</v>
+        <v>686</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M145" s="2"/>
+        <v>688</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>689</v>
+      </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>72</v>
@@ -18554,31 +18551,31 @@
         <v>72</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="X145" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE145" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>73</v>
@@ -18593,10 +18590,10 @@
         <v>117</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>72</v>
+        <v>690</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>180</v>
+        <v>497</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>72</v>
@@ -18607,7 +18604,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18630,16 +18627,16 @@
         <v>72</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -18689,7 +18686,7 @@
         <v>72</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>73</v>
@@ -18704,10 +18701,10 @@
         <v>117</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>692</v>
+        <v>72</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>497</v>
+        <v>180</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>72</v>
@@ -18718,7 +18715,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18729,7 +18726,7 @@
         <v>73</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>72</v>
@@ -18741,16 +18738,16 @@
         <v>72</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>694</v>
+        <v>397</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -18800,13 +18797,13 @@
         <v>72</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>72</v>
@@ -18829,7 +18826,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18840,7 +18837,7 @@
         <v>73</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>72</v>
@@ -18852,17 +18849,15 @@
         <v>72</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>397</v>
+        <v>226</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>699</v>
+        <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>701</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>72</v>
@@ -18911,25 +18906,25 @@
         <v>72</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>698</v>
+        <v>95</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>72</v>
@@ -18940,18 +18935,18 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>72</v>
@@ -18963,15 +18958,17 @@
         <v>72</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>72</v>
@@ -19020,19 +19017,19 @@
         <v>72</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>72</v>
@@ -19049,11 +19046,11 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19066,24 +19063,26 @@
         <v>72</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J150" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>101</v>
+        <v>406</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N150" s="2"/>
+      <c r="N150" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O150" t="s" s="2">
         <v>72</v>
       </c>
@@ -19131,7 +19130,7 @@
         <v>72</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>106</v>
+        <v>407</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>73</v>
@@ -19149,7 +19148,7 @@
         <v>72</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>72</v>
@@ -19160,43 +19159,41 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>404</v>
+        <v>72</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>405</v>
+        <v>704</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>406</v>
+        <v>705</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>72</v>
       </c>
@@ -19244,19 +19241,19 @@
         <v>72</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>407</v>
+        <v>703</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>72</v>
@@ -19273,7 +19270,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19296,16 +19293,16 @@
         <v>72</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>226</v>
+        <v>564</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>708</v>
+        <v>567</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
@@ -19355,7 +19352,7 @@
         <v>72</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>73</v>
@@ -19384,7 +19381,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19395,7 +19392,7 @@
         <v>73</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>72</v>
@@ -19407,17 +19404,15 @@
         <v>72</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>566</v>
+        <v>72</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>72</v>
@@ -19466,13 +19461,13 @@
         <v>72</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>72</v>
@@ -19481,7 +19476,7 @@
         <v>117</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>72</v>
+        <v>713</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>180</v>
@@ -19495,7 +19490,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19506,7 +19501,7 @@
         <v>73</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>72</v>
@@ -19515,16 +19510,16 @@
         <v>72</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>72</v>
+        <v>715</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19551,13 +19546,13 @@
         <v>72</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>72</v>
+        <v>718</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>72</v>
+        <v>719</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>72</v>
@@ -19575,13 +19570,13 @@
         <v>72</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>72</v>
@@ -19590,129 +19585,20 @@
         <v>117</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>715</v>
+        <v>72</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="155" hidden="true">
-      <c r="A155" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P155" s="2"/>
-      <c r="Q155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AM155" t="s" s="2">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM155">
+  <autoFilter ref="A1:AM154">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19722,7 +19608,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI154">
+  <conditionalFormatting sqref="A2:AI153">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:06+00:00</t>
+    <t>2022-11-17T18:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:46:46+00:00</t>
+    <t>2022-11-17T18:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:50:22+00:00</t>
+    <t>2022-11-17T19:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T19:05:57+00:00</t>
+    <t>2022-11-18T18:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T18:58:55+00:00</t>
+    <t>2022-11-21T14:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:15+00:00</t>
+    <t>2022-11-21T14:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:54+00:00</t>
+    <t>2022-11-21T15:06:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:06:17+00:00</t>
+    <t>2022-11-21T15:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:57:34+00:00</t>
+    <t>2022-11-21T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:58:19+00:00</t>
+    <t>2022-11-21T15:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:59:26+00:00</t>
+    <t>2022-11-21T16:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:10:12+00:00</t>
+    <t>2022-11-21T16:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:11:07+00:00</t>
+    <t>2022-11-22T17:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T17:30:40+00:00</t>
+    <t>2022-11-22T21:05:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -591,7 +591,7 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>Study</t>
+    <t>study</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://github.com/alpivonka/FHIR-Base-Clinical-Examples/StructureDefinition/study}

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T21:05:37+00:00</t>
+    <t>2022-11-28T16:09:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:09:45+00:00</t>
+    <t>2022-11-28T16:23:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:23:56+00:00</t>
+    <t>2022-11-28T16:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:45:04+00:00</t>
+    <t>2022-11-28T18:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:28:29+00:00</t>
+    <t>2022-11-28T18:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:16+00:00</t>
+    <t>2022-11-28T18:44:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:54+00:00</t>
+    <t>2022-11-28T18:46:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:46:24+00:00</t>
+    <t>2022-11-28T18:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:54:17+00:00</t>
+    <t>2022-11-28T18:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:57:56+00:00</t>
+    <t>2022-11-28T19:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T19:21:05+00:00</t>
+    <t>2022-11-28T20:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T20:19:31+00:00</t>
+    <t>2022-11-28T21:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:47:14+00:00</t>
+    <t>2022-11-28T21:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:50:18+00:00</t>
+    <t>2022-11-28T22:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T22:13:55+00:00</t>
+    <t>2022-11-29T14:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:31:35+00:00</t>
+    <t>2022-11-29T14:39:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:39:13+00:00</t>
+    <t>2022-11-29T18:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T18:40:08+00:00</t>
+    <t>2022-11-29T19:09:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:09:47+00:00</t>
+    <t>2022-11-29T19:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:18:22+00:00</t>
+    <t>2022-11-29T19:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:32:41+00:00</t>
+    <t>2022-11-29T19:42:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:42:29+00:00</t>
+    <t>2022-11-29T19:57:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-visit-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-visit-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:57:48+00:00</t>
+    <t>2022-11-29T20:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
